--- a/energyscope/preprocessing/lca_pre/lca_processed.xlsx
+++ b/energyscope/preprocessing/lca_pre/lca_processed.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>LCA_GWP</t>
+          <t>LCA_LANDUSE</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186.5641185000378</v>
+        <v>5287.756224038853</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.5776565724587</v>
+        <v>1603.581322439957</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139.3278514995011</v>
+        <v>2020.512527446118</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>138.8712376245192</v>
+        <v>2645.224608233028</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>254.8803191355886</v>
+        <v>4631.257905879512</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>323.6324565057589</v>
+        <v>4651.192326006449</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>330.0293675392627</v>
+        <v>9050.746177795952</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>520.9196655921762</v>
+        <v>4269.976339112688</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.6255022278395</v>
+        <v>9588.508285096872</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4000.464653619619</v>
+        <v>109950.1099205239</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>309.308134795999</v>
+        <v>2018.444893594326</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>143.8804760778494</v>
+        <v>2418.016962776323</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>337.2514694867164</v>
+        <v>3285.689240011763</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.777133601135749</v>
+        <v>46.01575682899711</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.97952732290766</v>
+        <v>1152.965747382119</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.777133601135749</v>
+        <v>46.01575682899711</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>74.00012920632109</v>
+        <v>2806.362529684596</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>51.62442179834478</v>
+        <v>1215.225897740755</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.886063603317645</v>
+        <v>10.07178477361801</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>118.3143565022701</v>
+        <v>547.2524552412954</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.2220707155735</v>
+        <v>2004.476653049946</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>143.8804760778494</v>
+        <v>2418.016962776323</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>337.2514694867164</v>
+        <v>3285.689240011763</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3400.8686364493</v>
+        <v>103608.3408689831</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2352.544460486043</v>
+        <v>69159.99546942231</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.777133601135749</v>
+        <v>46.01575682899711</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.97952732290766</v>
+        <v>1152.965747382119</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.777133601135749</v>
+        <v>46.01575682899711</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>514.6551730105406</v>
+        <v>6974.005201863103</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1169.85529365898</v>
+        <v>21956.0249545365</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>118.3143565022701</v>
+        <v>547.2524552412954</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>169.88044222154</v>
+        <v>1872.93890382276</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>478.0014402199118</v>
+        <v>3025.876248885467</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>478.0014402199118</v>
+        <v>3025.876248885467</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>514.1991508067206</v>
+        <v>10196.32125511973</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>514.1991508067206</v>
+        <v>10196.32125511973</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.777133601135749</v>
+        <v>46.01575682899711</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>48.97952732290766</v>
+        <v>1152.965747382119</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.777133601135749</v>
+        <v>46.01575682899711</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1169.85529365898</v>
+        <v>21956.0249545365</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.886063603317645</v>
+        <v>10.07178477361801</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.001253362858436402</v>
+        <v>0.01551992248228252</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.003290349102578957</v>
+        <v>0.0961258407713208</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.003323179788334332</v>
+        <v>0.09690665487858637</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.003415991803754764</v>
+        <v>0.09757072040029838</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.00412310679537039</v>
+        <v>0.1203386018082844</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0003782408447707182</v>
+        <v>0.01042546223737241</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.02656646962581561</v>
+        <v>0.2431554073956374</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.02692211271155763</v>
+        <v>0.2465477474535742</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.02718469889650208</v>
+        <v>0.2533879076175352</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02656646962581561</v>
+        <v>0.2431554073956374</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.02702913411345568</v>
+        <v>0.2699390127019664</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.03060587250416702</v>
+        <v>0.3458824962740714</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.04051657227740522</v>
+        <v>0.4987403224951342</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.06904235623850223</v>
+        <v>0.9479298512761148</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.001130793315114101</v>
+        <v>0.01059229436862468</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.000681566730887191</v>
+        <v>0.007290431804026155</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.000681566730887191</v>
+        <v>0.007290431804026155</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.000681566730887191</v>
+        <v>0.007290431804026155</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.008736039263369863</v>
+        <v>0.2137029930279955</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.00871208589345108</v>
+        <v>0.2127574740098442</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01091113457293848</v>
+        <v>0.2912631023217529</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01075733407726993</v>
+        <v>0.2766494901276721</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.00871208589345108</v>
+        <v>0.2127574740098442</v>
       </c>
     </row>
     <row r="66">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1137.294519412279</v>
+        <v>50443.92918539556</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1059.447654847709</v>
+        <v>5299.472180003951</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>319.9104128326073</v>
+        <v>14495.65034145474</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>79.2197722053686</v>
+        <v>10366.14667590951</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>79.2197722053686</v>
+        <v>10366.14667590951</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>76.10891876491412</v>
+        <v>10347.74037317791</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1653.96223617001</v>
+        <v>54349.8506433486</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>79.2197722053686</v>
+        <v>10366.14667590951</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>838.3865919976233</v>
+        <v>51033.84048588468</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>806.9714748877477</v>
+        <v>49610.37149333623</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>114.6248092316489</v>
+        <v>1183.657063617984</v>
       </c>
     </row>
     <row r="79">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1554.953170277699</v>
+        <v>83738.21857102691</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>35.33915189120535</v>
+        <v>7596.077400982282</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1560.933786195208</v>
+        <v>83773.60468908296</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1493.26430786531</v>
+        <v>67662.18418003194</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>319.9104128326073</v>
+        <v>14495.65034145474</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>596.8868256239939</v>
+        <v>27045.89275808772</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>596.8868256239939</v>
+        <v>27045.89275808772</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>596.8868256239939</v>
+        <v>27045.89275808772</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>596.8868256239939</v>
+        <v>27045.89275808772</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>66.88100867906861</v>
+        <v>840.5629832916817</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>66.88100867906861</v>
+        <v>840.5629832916817</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>66.88100867906861</v>
+        <v>840.5629832916817</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1.136576332437685</v>
+        <v>9.325039956413756</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>4.388826904052073</v>
+        <v>135.2013416962485</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>4.388826904052073</v>
+        <v>135.2013416962485</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4.388826904052073</v>
+        <v>135.2013416962485</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>4.388826904052073</v>
+        <v>135.2013416962485</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>4.388826904052073</v>
+        <v>135.2013416962485</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>4.388826904052073</v>
+        <v>135.2013416962485</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>4.388826904052073</v>
+        <v>135.2013416962485</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4.388826904052073</v>
+        <v>135.2013416962485</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>4.388826904052073</v>
+        <v>135.2013416962485</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>4.388826904052073</v>
+        <v>135.2013416962485</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>4.388826904052073</v>
+        <v>135.2013416962485</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>4.388826904052073</v>
+        <v>135.2013416962485</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>4.388826904052073</v>
+        <v>135.2013416962485</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>28.58095123699944</v>
+        <v>94.73328509220154</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>11.23343748877832</v>
+        <v>37.23390545561068</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.01854703304161283</v>
+        <v>0.2929404294456359</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.02059591415431495</v>
+        <v>0.325301406626805</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.01659748693902379</v>
+        <v>0.2621483954186754</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>71.72614235186691</v>
+        <v>237.740620864534</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>67.70533070771897</v>
+        <v>224.413398385878</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>3466.763562607343</v>
+        <v>11490.79672682777</v>
       </c>
     </row>
   </sheetData>
